--- a/project-doc/项目文档.xlsx
+++ b/project-doc/项目文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10080"/>
+    <workbookView windowWidth="25600" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="项目分工" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,6 +169,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +209,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -209,114 +315,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,55 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,151 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +616,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -658,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -669,6 +681,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,214 +710,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1234,7 +1219,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1254,29 +1239,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1290,7 +1275,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1316,214 +1301,214 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10"/>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10"/>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10"/>
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10"/>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1575,41 +1560,41 @@
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1617,27 +1602,27 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1654,54 +1639,54 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/project-doc/项目文档.xlsx
+++ b/project-doc/项目文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11200"/>
+    <workbookView windowWidth="25600" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="项目分工" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>成员</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>图片地址</t>
+  </si>
+  <si>
+    <t>gooddetail 商品表</t>
   </si>
 </sst>
 </file>
@@ -158,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,6 +182,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,91 +269,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,17 +298,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,151 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,31 +629,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +675,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -710,147 +698,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,7 +1222,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1531,15 +1534,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="13.0892857142857" customWidth="1"/>
+    <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="29.3035714285714" customWidth="1"/>
     <col min="3" max="3" width="20.2321428571429" customWidth="1"/>
     <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="12.6428571428571" customWidth="1"/>
@@ -1690,9 +1694,102 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
